--- a/Report/Impact_Control.xlsx
+++ b/Report/Impact_Control.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://upm365-my.sharepoint.com/personal/daniel_delrio_velilla_alumnos_upm_es/Documents/MUSE/S3/CE2/Report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="82" documentId="11_AD4D2F04E46CFB4ACB3E20C29552CDFC693EDF15" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B874449B-138D-46C0-A9C6-B4B7608AB543}"/>
+  <xr:revisionPtr revIDLastSave="140" documentId="11_AD4D2F04E46CFB4ACB3E20C29552CDFC693EDF15" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BC9BDEE9-14A2-4C9E-9679-C9766C907557}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-12210" yWindow="4200" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
   <si>
     <t>Masa</t>
   </si>
@@ -70,6 +70,24 @@
   </si>
   <si>
     <t>19800106_2144</t>
+  </si>
+  <si>
+    <t>19800101_0011</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Cargado en XY de entrenamiento</t>
+  </si>
+  <si>
+    <t>Procesado pero no cargado en XY entenamiento</t>
+  </si>
+  <si>
+    <t>Repetido</t>
+  </si>
+  <si>
+    <t>19800103_2144</t>
   </si>
 </sst>
 </file>
@@ -95,12 +113,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -112,18 +148,31 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="4"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="4" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="3"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="5">
+    <cellStyle name="20% - Énfasis5" xfId="3" builtinId="46"/>
+    <cellStyle name="20% - Énfasis6" xfId="4" builtinId="50"/>
+    <cellStyle name="40% - Énfasis2" xfId="2" builtinId="35"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -403,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -414,9 +463,10 @@
     <col min="2" max="2" width="9.28515625" customWidth="1"/>
     <col min="3" max="3" width="14.28515625" customWidth="1"/>
     <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="44" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -433,176 +483,236 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>60</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="3">
         <v>1</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="4">
         <v>44497</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="3">
         <v>2656</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F2" s="3">
+        <v>2653</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
-      <c r="B3">
+      <c r="B3" s="3">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="3">
         <v>1183</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="3">
         <v>1183</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H3" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
-      <c r="B4">
+      <c r="B4" s="3">
         <v>2</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="3">
         <v>7650</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="3">
         <v>6666</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H4" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>110</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="3">
         <v>1</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="4">
         <v>44502</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="3">
         <v>3824</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F5" s="3">
+        <v>3820</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
-      <c r="B6">
+      <c r="B6" s="3">
         <v>2</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="3">
         <v>7650</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="3">
         <v>7218</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>160</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="3">
         <v>1</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="4">
         <v>44503</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="3">
         <v>3825</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F7" s="3">
+        <v>3825</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
-      <c r="B8">
+      <c r="B8" s="5">
         <v>1</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="5">
         <v>20211103</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="5">
         <v>3825</v>
       </c>
-      <c r="F8">
-        <v>3825</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F8" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
-      <c r="B9">
+      <c r="B9" s="3">
         <v>2</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="3">
         <v>7650</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="3">
         <v>7541</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>210</v>
       </c>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="B10" s="3">
+        <v>1</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="3">
+        <v>3825</v>
+      </c>
+      <c r="F10" s="3">
+        <v>3824</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>260</v>
       </c>
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="3">
+        <v>2</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="3">
+        <v>3825</v>
+      </c>
+      <c r="F11" s="3">
+        <v>3820</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="3">
+        <v>1</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="3">
+        <v>3825</v>
+      </c>
+      <c r="F12" s="3">
+        <v>3825</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C14" s="1"/>
       <c r="F14">
-        <f>SUM(F2:F9)</f>
-        <v>26433</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <f>SUM(F2:F12)</f>
+        <v>44375</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C16" s="1"/>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.25">
